--- a/biology/Botanique/Peucedanum_camerunense/Peucedanum_camerunense.xlsx
+++ b/biology/Botanique/Peucedanum_camerunense/Peucedanum_camerunense.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Peucedanum camerunense Jacq.-Fél. est une espèce de plantes herbacées de la famille des Apiaceae[2] selon la classification phylogénétique. Cette espèce fut trouvée et décrite pour la première fois au Gabon en 1962 et se développe dans d'autres pays d'Afrique centrale comme le Cameroun.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Peucedanum camerunense Jacq.-Fél. est une espèce de plantes herbacées de la famille des Apiaceae selon la classification phylogénétique. Cette espèce fut trouvée et décrite pour la première fois au Gabon en 1962 et se développe dans d'autres pays d'Afrique centrale comme le Cameroun.
 </t>
         </is>
       </c>
